--- a/audio/en/方案四/飯店QA/飯店QA.xlsx
+++ b/audio/en/方案四/飯店QA/飯店QA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\en\方案四\飯店QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74C7A5A-C1D0-48D7-A7F8-CD2B0F4D1D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562B452D-A3BE-4795-B6F5-BEFE2238BFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="16410" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1230" yWindow="150" windowWidth="16410" windowHeight="13485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="382">
   <si>
     <t>問題</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1188,12 +1188,6 @@
   </si>
   <si>
     <t>Yes, please inquire with the restaurant or website for birthday dining promotions.</t>
-  </si>
-  <si>
-    <t>Crystal grams ofυalth reference.</t>
-  </si>
-  <si>
-    <t>We offer numerous health-related references.</t>
   </si>
   <si>
     <t>You can register online to become a member and enjoy exclusive benefits, point accumulation, and a birthday gift.</t>
@@ -1303,12 +1297,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1323,9 +1323,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1608,8 +1612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C101"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2782,45 +2786,39 @@
         <v>47</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+    <row r="84" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C84" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>186</v>
-      </c>
-      <c r="B85" t="s">
-        <v>185</v>
-      </c>
-      <c r="C85" t="s">
-        <v>355</v>
-      </c>
-      <c r="D85" s="1" t="s">
+      <c r="D85" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="86" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B86" t="s">
-        <v>186</v>
-      </c>
-      <c r="C86" t="s">
-        <v>356</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="D86" s="3" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2832,7 +2830,7 @@
         <v>188</v>
       </c>
       <c r="C87" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
@@ -2843,10 +2841,10 @@
         <v>189</v>
       </c>
       <c r="B88" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C88" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
@@ -2857,10 +2855,10 @@
         <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C89" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>41</v>
@@ -2874,7 +2872,7 @@
         <v>191</v>
       </c>
       <c r="C90" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>40</v>
@@ -2885,10 +2883,10 @@
         <v>192</v>
       </c>
       <c r="B91" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C91" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>39</v>
@@ -2899,10 +2897,10 @@
         <v>193</v>
       </c>
       <c r="B92" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C92" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>38</v>
@@ -2913,10 +2911,10 @@
         <v>194</v>
       </c>
       <c r="B93" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C93" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
@@ -2927,10 +2925,10 @@
         <v>195</v>
       </c>
       <c r="B94" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C94" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
@@ -2941,10 +2939,10 @@
         <v>196</v>
       </c>
       <c r="B95" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C95" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
@@ -2955,10 +2953,10 @@
         <v>197</v>
       </c>
       <c r="B96" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C96" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
@@ -2969,10 +2967,10 @@
         <v>198</v>
       </c>
       <c r="B97" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C97" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
@@ -2983,10 +2981,10 @@
         <v>199</v>
       </c>
       <c r="B98" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C98" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>32</v>
@@ -2997,10 +2995,10 @@
         <v>200</v>
       </c>
       <c r="B99" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C99" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>31</v>
@@ -3014,7 +3012,7 @@
         <v>201</v>
       </c>
       <c r="C100" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
@@ -3025,10 +3023,10 @@
         <v>202</v>
       </c>
       <c r="B101" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C101" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>29</v>
